--- a/BTE THERAPY.xlsx
+++ b/BTE THERAPY.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HsnHs\OneDrive\Belgeler\GitHub\BTE_THERAPY\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB79B11-EA40-4471-BE97-56855C734717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="17172" yWindow="-120" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,115 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>INSERT INTO Kategori(Kategori) VALUES('Mesane ve Bağırsak Eğitimi')</t>
+  </si>
+  <si>
+    <t>INSERT INTO Kategori(Kategori) VALUES('Duyu Eğitimi')</t>
+  </si>
+  <si>
+    <t>INSERT INTO Kategori(Kategori) VALUES('Pasif Yaklaşımlar')</t>
+  </si>
+  <si>
+    <t>INSERT INTO Kategori(Kategori) VALUES('Aktif Yaklaşımlar')</t>
+  </si>
+  <si>
+    <t>INSERT INTO Kategori(Kategori) VALUES('Postür Eğitimi')</t>
+  </si>
+  <si>
+    <t>ÜST KATEGORİ</t>
+  </si>
+  <si>
+    <t>ALT KATEGORİ</t>
+  </si>
+  <si>
+    <t>INSERT INTO AltKategori(UstKategoriID, AltKategori) VALUES(1,'Alarm Tedavisi')</t>
+  </si>
+  <si>
+    <t>INSERT INTO AltKategori(UstKategoriID, AltKategori) VALUES(1,'İşeme ve Dışkılama Eğitimi')</t>
+  </si>
+  <si>
+    <t>INSERT INTO AltKategori(UstKategoriID, AltKategori) VALUES(1,'Sıvı ve Beslenme Önerileri')</t>
+  </si>
+  <si>
+    <t>INSERT INTO AltKategori(UstKategoriID, AltKategori) VALUES(1,'Doğru Tuvalet Pozisyonu')</t>
+  </si>
+  <si>
+    <t>INSERT INTO AltKategori(UstKategoriID, AltKategori) VALUES(1,'Davranış Değişikliği')</t>
+  </si>
+  <si>
+    <t>INSERT INTO AltKategori(UstKategoriID, AltKategori) VALUES(2,'Proprioseptif Duyu')</t>
+  </si>
+  <si>
+    <t>INSERT INTO AltKategori(UstKategoriID, AltKategori) VALUES(2,'Vestibüler Duyu')</t>
+  </si>
+  <si>
+    <t>INSERT INTO AltKategori(UstKategoriID, AltKategori) VALUES(2,'İnteroseptif Duyu')</t>
+  </si>
+  <si>
+    <t>INSERT INTO AltKategori(UstKategoriID, AltKategori) VALUES(2,'Taktil Duyu')</t>
+  </si>
+  <si>
+    <t>INSERT INTO AltKategori(UstKategoriID, AltKategori) VALUES(2,'Tat ve Koku Duyusu')</t>
+  </si>
+  <si>
+    <t>INSERT INTO AltKategori(UstKategoriID, AltKategori) VALUES(2,'Görsel Duyu')</t>
+  </si>
+  <si>
+    <t>INSERT INTO AltKategori(UstKategoriID, AltKategori) VALUES(2,'İşitsel Duyu')</t>
+  </si>
+  <si>
+    <t>INSERT INTO AltKategori(UstKategoriID, AltKategori) VALUES(3,'Diyafram')</t>
+  </si>
+  <si>
+    <t>INSERT INTO AltKategori(UstKategoriID, AltKategori) VALUES(3,'Abdominal Duvar')</t>
+  </si>
+  <si>
+    <t>INSERT INTO AltKategori(UstKategoriID, AltKategori) VALUES(3,'Torakolumbal Fasya')</t>
+  </si>
+  <si>
+    <t>INSERT INTO AltKategori(UstKategoriID, AltKategori) VALUES(3,'Kalça Çevresi Kaslar')</t>
+  </si>
+  <si>
+    <t>INSERT INTO AltKategori(UstKategoriID, AltKategori) VALUES(3,'Pelvik Taban')</t>
+  </si>
+  <si>
+    <t>INSERT INTO AltKategori(UstKategoriID, AltKategori) VALUES(4,'Solunum Egzersizleri')</t>
+  </si>
+  <si>
+    <t>INSERT INTO AltKategori(UstKategoriID, AltKategori) VALUES(4,'Pelvik Taban Egzersizleri')</t>
+  </si>
+  <si>
+    <t>INSERT INTO AltKategori(UstKategoriID, AltKategori) VALUES(4,'Kor Stabilizasyon Egzersizleri')</t>
+  </si>
+  <si>
+    <t>INSERT INTO AltKategori(UstKategoriID, AltKategori) VALUES(5,'Çocuklarda Postür ve Postürel Farkındalık')</t>
+  </si>
+  <si>
+    <t>INSERT INTO AltKategori(UstKategoriID, AltKategori) VALUES(5,'Postür Egzersizleri')</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,8 +156,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +447,162 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="88.140625" customWidth="1"/>
+    <col min="3" max="3" width="100.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>